--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P05_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P05_trail3 Features.xlsx
@@ -4964,7 +4964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4975,29 +4975,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5018,115 +5016,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5143,72 +5131,66 @@
         <v>1.43082466171127e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.176915140666657</v>
+        <v>1.126286495843098e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>14.56154107616732</v>
+        <v>1.998793785901103e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.126286495843098e-06</v>
+        <v>-0.131376118067855</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.998793785901103e-06</v>
+        <v>0.453639037455607</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.131376118067855</v>
+        <v>0.2224573067642347</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.453639037455607</v>
+        <v>1.932687228266923</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.2224573067642347</v>
+        <v>3.46381829527453</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.965277304362666</v>
+        <v>9.76512884013427</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.46381829527453</v>
+        <v>2.200516400873229e-18</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>9.76512884013427</v>
+        <v>63627898985.4472</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.200516400873229e-18</v>
+        <v>1.901417377545196e-09</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>63627898985.4472</v>
+        <v>8908.81161832121</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.901417377545196e-09</v>
+        <v>6.686958705636775e-06</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>8908.81161832121</v>
+        <v>7.241982438369793</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>6.686958705636775e-06</v>
+        <v>1.478417727856776</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.241982438369793</v>
+        <v>0.000350706306810049</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.478417727856776</v>
+        <v>8.467779682378529</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.000350706306810049</v>
+        <v>0.9613694763336297</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>8.467779682378529</v>
+        <v>0.7338317608263882</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9613694763336297</v>
+        <v>647</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.7338317608263882</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>647</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>17.97531062716165</v>
       </c>
     </row>
@@ -5223,72 +5205,66 @@
         <v>1.036749788360709e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1.619469909274297</v>
+        <v>7.621454421593256e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>6.10337142402903</v>
+        <v>1.983227363254177e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>7.621454421593256e-07</v>
+        <v>-0.1227069539538538</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.983227363254177e-06</v>
+        <v>0.4391084071905371</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.1227069539538538</v>
+        <v>0.2072819998541825</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.4391084071905371</v>
+        <v>1.925707911527979</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.2072819998541825</v>
+        <v>3.73474648282929</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.964825220262584</v>
+        <v>9.745892911462128</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.73474648282929</v>
+        <v>2.209211499467699e-18</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>9.745892911462128</v>
+        <v>59704995064.80685</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.209211499467699e-18</v>
+        <v>2.005084413453073e-09</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>59704995064.80685</v>
+        <v>7875.146265719804</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.005084413453073e-09</v>
+        <v>6.145602976079337e-06</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>7875.146265719804</v>
+        <v>7.351674085011199</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>6.145602976079337e-06</v>
+        <v>1.459044560588172</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.351674085011199</v>
+        <v>0.0003321520914475283</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.459044560588172</v>
+        <v>8.54141145001168</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0003321520914475283</v>
+        <v>0.9618167309126425</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>8.54141145001168</v>
+        <v>0.6926281366707872</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9618167309126425</v>
+        <v>627</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.6926281366707872</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>627</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>18.36252357718634</v>
       </c>
     </row>
@@ -5303,72 +5279,66 @@
         <v>8.588495857227719e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.2420294856856129</v>
+        <v>5.052308444747041e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.1329252626634938</v>
+        <v>1.972794647553989e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>5.052308444747041e-07</v>
+        <v>-0.09820389759370111</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.972794647553989e-06</v>
+        <v>0.364824327793103</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.09820389759370111</v>
+        <v>0.1423144348415867</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.364824327793103</v>
+        <v>1.924569170651241</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1423144348415867</v>
+        <v>3.911016752279205</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.96224537597205</v>
+        <v>9.701643998867171</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.911016752279205</v>
+        <v>2.229409753673767e-18</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>9.701643998867171</v>
+        <v>58477430001.66506</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.229409753673767e-18</v>
+        <v>2.048780514347127e-09</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>58477430001.66506</v>
+        <v>7623.71148557402</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.048780514347127e-09</v>
+        <v>6.849810133478238e-06</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>7623.71148557402</v>
+        <v>8.5485300215406</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>6.849810133478238e-06</v>
+        <v>1.554790170046559</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.5485300215406</v>
+        <v>0.0005005660789296768</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.554790170046559</v>
+        <v>8.553333078597058</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0005005660789296768</v>
+        <v>0.9622328740803338</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>8.553333078597058</v>
+        <v>0.7232431213799472</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9622328740803338</v>
+        <v>610</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.7232431213799472</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>610</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>18.3349850406548</v>
       </c>
     </row>
@@ -5383,72 +5353,66 @@
         <v>8.147503806239012e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.1530192036753138</v>
+        <v>3.298525252028907e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.282026412695458</v>
+        <v>1.965934789777337e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.298525252028907e-07</v>
+        <v>-0.06759116012339264</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.965934789777337e-06</v>
+        <v>0.2621715057647855</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.06759116012339264</v>
+        <v>0.07308620028430871</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2621715057647855</v>
+        <v>1.922557239525702</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.07308620028430871</v>
+        <v>3.983500664177253</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.960933277659588</v>
+        <v>9.835728497526222</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.983500664177253</v>
+        <v>2.169039700007545e-18</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>9.835728497526222</v>
+        <v>60097640430.36845</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.169039700007545e-18</v>
+        <v>1.995964276193667e-09</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>60097640430.36845</v>
+        <v>7833.9779152758</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.995964276193667e-09</v>
+        <v>7.089531094250369e-06</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>7833.9779152758</v>
+        <v>9.907308232279641</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>7.089531094250369e-06</v>
+        <v>1.424472762205557</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.907308232279641</v>
+        <v>0.0006958711976129832</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.424472762205557</v>
+        <v>8.520947951240277</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0006958711976129832</v>
+        <v>0.962727859114227</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>8.520947951240277</v>
+        <v>0.6787182990751253</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.962727859114227</v>
+        <v>623</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.6787182990751253</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>623</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>18.13921333070903</v>
       </c>
     </row>
@@ -5463,72 +5427,66 @@
         <v>8.261247375914753e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.1555433772534543</v>
+        <v>2.754428920620527e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.275563137872257</v>
+        <v>1.961446546859473e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.754428920620527e-07</v>
+        <v>-0.04408100493318888</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.961446546859473e-06</v>
+        <v>0.1841467614567954</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.04408100493318888</v>
+        <v>0.03577174403661072</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1841467614567954</v>
+        <v>1.921965621717731</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03577174403661072</v>
+        <v>3.91044774715505</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.962975519699599</v>
+        <v>10.26341414664536</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>3.91044774715505</v>
+        <v>1.992034508747277e-18</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>10.26341414664536</v>
+        <v>65407274916.21127</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.992034508747277e-18</v>
+        <v>1.834456129890993e-09</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>65407274916.21127</v>
+        <v>8522.145963306401</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.834456129890993e-09</v>
+        <v>6.560258182597663e-06</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>8522.145963306401</v>
+        <v>9.332680227517729</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>6.560258182597663e-06</v>
+        <v>1.423077598411763</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.332680227517729</v>
+        <v>0.0005713914041283768</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.423077598411763</v>
+        <v>8.488638224658585</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0005713914041283768</v>
+        <v>0.9634228028973003</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>8.488638224658585</v>
+        <v>0.6701803515672293</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9634228028973003</v>
+        <v>653</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.6701803515672293</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>653</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>17.82377873759291</v>
       </c>
     </row>
@@ -5543,72 +5501,66 @@
         <v>8.512385290101522e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.152977135997654</v>
+        <v>2.831051302475876e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.274614833603941</v>
+        <v>1.958392524262448e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.831051302475876e-07</v>
+        <v>-0.03040791404713296</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.958392524262448e-06</v>
+        <v>0.145302731584818</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.03040791404713296</v>
+        <v>0.02201298549842677</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.145302731584818</v>
+        <v>1.918100807750249</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.02201298549842677</v>
+        <v>3.577481893437086</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.960636179036833</v>
+        <v>10.42783089575897</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>3.577481893437086</v>
+        <v>1.92971248046965e-18</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>10.42783089575897</v>
+        <v>67914744030.33725</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.92971248046965e-18</v>
+        <v>1.761150452503197e-09</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>67914744030.33725</v>
+        <v>8900.629882779687</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.761150452503197e-09</v>
+        <v>7.307808208292769e-06</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>8900.629882779687</v>
+        <v>7.119398384601285</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>7.307808208292769e-06</v>
+        <v>1.516757356075829</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>7.119398384601285</v>
+        <v>0.0003704023490625998</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.516757356075829</v>
+        <v>8.476806680224513</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0003704023490625998</v>
+        <v>0.9628718837086959</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>8.476806680224513</v>
+        <v>0.6912776432219451</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9628718837086959</v>
+        <v>660</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.6912776432219451</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>660</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>17.35229853920323</v>
       </c>
     </row>
@@ -5623,72 +5575,66 @@
         <v>8.770967296518991e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.1773289094250952</v>
+        <v>2.906942078306171e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.268557339512819</v>
+        <v>1.956103263751135e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.906942078306171e-07</v>
+        <v>-0.02346558259568767</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.956103263751135e-06</v>
+        <v>0.1298994915784951</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.02346558259568767</v>
+        <v>0.01741688092060489</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1298994915784951</v>
+        <v>1.925032973629051</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01741688092060489</v>
+        <v>3.659145703894176</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.96543776981741</v>
+        <v>10.28573469403772</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>3.659145703894176</v>
+        <v>1.983398264820663e-18</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>10.28573469403772</v>
+        <v>66146992821.72306</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.983398264820663e-18</v>
+        <v>1.819460013364114e-09</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>66146992821.72306</v>
+        <v>8678.209677222378</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.819460013364114e-09</v>
+        <v>7.73224341490682e-06</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>8678.209677222378</v>
+        <v>6.648554222953124</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>7.73224341490682e-06</v>
+        <v>1.615766017522751</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>6.648554222953124</v>
+        <v>0.0003417904685475364</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.615766017522751</v>
+        <v>8.481509524430523</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.0003417904685475364</v>
+        <v>0.9641497884171686</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>8.481509524430523</v>
+        <v>0.7049336685347434</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9641497884171686</v>
+        <v>653</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.7049336685347434</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>653</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>17.65647506343317</v>
       </c>
     </row>
@@ -5703,72 +5649,66 @@
         <v>9.017541733072567e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.2128629050795779</v>
+        <v>2.982811568296942e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.247459706441705</v>
+        <v>1.954191515486844e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.982811568296942e-07</v>
+        <v>-0.01994425779489931</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.954191515486844e-06</v>
+        <v>0.1228205333629389</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.01994425779489931</v>
+        <v>0.01547957838451651</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1228205333629389</v>
+        <v>1.928123161971232</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01547957838451651</v>
+        <v>3.595697747489714</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.966521963027699</v>
+        <v>9.908818079799882</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>3.595697747489714</v>
+        <v>2.137159103741467e-18</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>9.908818079799882</v>
+        <v>65044865830.69501</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.137159103741467e-18</v>
+        <v>1.8568724194065e-09</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>65044865830.69501</v>
+        <v>9041.966619693829</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.8568724194065e-09</v>
+        <v>8.192048226029428e-06</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>9041.966619693829</v>
+        <v>7.758502696925085</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>8.192048226029428e-06</v>
+        <v>1.418311626041131</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.758502696925085</v>
+        <v>0.0004931151336275781</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.418311626041131</v>
+        <v>8.432755159166401</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.0004931151336275781</v>
+        <v>0.9639997278812351</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>8.432755159166401</v>
+        <v>0.7305635320178689</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9639997278812351</v>
+        <v>656</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.7305635320178689</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>656</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>18.03931065524623</v>
       </c>
     </row>
@@ -5783,72 +5723,66 @@
         <v>9.256222363241664e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.251956006279534</v>
+        <v>3.0581121924524e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.217323159206773</v>
+        <v>1.952460743874896e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>3.0581121924524e-07</v>
+        <v>-0.0182539010478485</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.952460743874896e-06</v>
+        <v>0.1186355876506583</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.0182539010478485</v>
+        <v>0.01440653971818431</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1186355876506583</v>
+        <v>1.927247183226855</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01440653971818431</v>
+        <v>3.503660693305486</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.967658386959688</v>
+        <v>9.861161471472911</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>3.503660693305486</v>
+        <v>2.157865764361358e-18</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>9.861161471472911</v>
+        <v>64567898392.91206</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.157865764361358e-18</v>
+        <v>1.867210114733684e-09</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>64567898392.91206</v>
+        <v>8996.171509019397</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.867210114733684e-09</v>
+        <v>7.991439697831835e-06</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>8996.171509019397</v>
+        <v>9.607063263747156</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>7.991439697831835e-06</v>
+        <v>1.304378323258753</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.607063263747156</v>
+        <v>0.0007375752376517304</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.304378323258753</v>
+        <v>8.404205341798843</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.0007375752376517304</v>
+        <v>0.9647566662263799</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>8.404205341798843</v>
+        <v>0.7234627240799706</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9647566662263799</v>
+        <v>658</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.7234627240799706</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>658</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>18.38494873787619</v>
       </c>
     </row>
@@ -5863,72 +5797,66 @@
         <v>9.496798226038331e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.2910315755345555</v>
+        <v>3.132962986510396e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.185524217024353</v>
+        <v>1.950762243126587e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>3.132962986510396e-07</v>
+        <v>-0.01827229938896479</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.950762243126587e-06</v>
+        <v>0.1157605088667652</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.01827229938896479</v>
+        <v>0.0137340136627894</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1157605088667652</v>
+        <v>1.932469330056436</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.0137340136627894</v>
+        <v>4.543741247574574</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.970520804707197</v>
+        <v>8.550331446658912</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>4.543741247574574</v>
+        <v>2.031181607676482e-18</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>8.550331446658912</v>
+        <v>66846987864.04697</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.031181607676482e-18</v>
+        <v>1.806193881982854e-09</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>66846987864.04697</v>
+        <v>9076.3752038692</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.806193881982854e-09</v>
+        <v>6.920837145780625e-06</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>9076.3752038692</v>
+        <v>9.72320521126252</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>6.920837145780625e-06</v>
+        <v>1.342574131581072</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.72320521126252</v>
+        <v>0.0006543009238603265</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.342574131581072</v>
+        <v>8.484131399863056</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.0006543009238603265</v>
+        <v>0.9649772016513802</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>8.484131399863056</v>
+        <v>0.6963623195650482</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9649772016513802</v>
+        <v>661</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.6963623195650482</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>661</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>18.47194938581399</v>
       </c>
     </row>
@@ -5943,72 +5871,66 @@
         <v>9.752163218899658e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.3270697817335755</v>
+        <v>3.207215097956826e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.16069847234004</v>
+        <v>1.948937379071413e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>3.207215097956826e-07</v>
+        <v>-0.01988972981884046</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.948937379071413e-06</v>
+        <v>0.112570011788165</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.01988972981884046</v>
+        <v>0.01306669257463582</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.112570011788165</v>
+        <v>1.933518821986435</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01306669257463582</v>
+        <v>4.320703695328389</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.970181051379123</v>
+        <v>8.46682390836658</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>4.320703695328389</v>
+        <v>2.01752246584373e-18</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>8.46682390836658</v>
+        <v>66880366480.78584</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.01752246584373e-18</v>
+        <v>1.807426239575548e-09</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>66880366480.78584</v>
+        <v>9024.344540415554</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.807426239575548e-09</v>
+        <v>5.963189763504706e-06</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>9024.344540415554</v>
+        <v>7.80812285512104</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>5.963189763504706e-06</v>
+        <v>1.661407000384086</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>7.80812285512104</v>
+        <v>0.0003635564934410385</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.661407000384086</v>
+        <v>8.585022788432179</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.0003635564934410385</v>
+        <v>0.9641513149260071</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>8.585022788432179</v>
+        <v>0.6683933752813479</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9641513149260071</v>
+        <v>665</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.6683933752813479</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>665</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>18.58936375515731</v>
       </c>
     </row>
@@ -6023,72 +5945,66 @@
         <v>1.003182348472552e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.3561012943487205</v>
+        <v>3.280078682636176e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.151437213294785</v>
+        <v>1.946838154476161e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>3.280078682636176e-07</v>
+        <v>-0.0226944969273676</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.946838154476161e-06</v>
+        <v>0.1078794018563269</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.0226944969273676</v>
+        <v>0.01215098516234031</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1078794018563269</v>
+        <v>1.929460075141838</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01215098516234031</v>
+        <v>3.684714575119141</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.96790177977413</v>
+        <v>9.039326737303195</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>3.684714575119141</v>
+        <v>1.962615147855954e-18</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>9.039326737303195</v>
+        <v>66121922010.80461</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.962615147855954e-18</v>
+        <v>1.821819139359078e-09</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>66121922010.80461</v>
+        <v>8580.766508343622</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.821819139359078e-09</v>
+        <v>4.235123396206992e-06</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>8580.766508343622</v>
+        <v>6.350943906510331</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>4.235123396206992e-06</v>
+        <v>2.009330820978075</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>6.350943906510331</v>
+        <v>0.0001708215359358107</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>2.009330820978075</v>
+        <v>8.687280517021794</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.0001708215359358107</v>
+        <v>0.9646310447483909</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>8.687280517021794</v>
+        <v>0.6738033784850751</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9646310447483909</v>
+        <v>625</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.6738033784850751</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>625</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>19.63461713692498</v>
       </c>
     </row>
@@ -6103,72 +6019,66 @@
         <v>1.03373433925988e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.3734800747408972</v>
+        <v>3.351151282016207e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.162867517463323</v>
+        <v>1.944344879544106e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>3.351151282016207e-07</v>
+        <v>-0.02637865540463165</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.944344879544106e-06</v>
+        <v>0.1010120492805647</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.02637865540463165</v>
+        <v>0.01089564776796946</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1010120492805647</v>
+        <v>1.923358058399574</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01089564776796946</v>
+        <v>4.156572635306851</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.964183268944538</v>
+        <v>9.011192855429893</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>4.156572635306851</v>
+        <v>1.974889255988345e-18</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>9.011192855429893</v>
+        <v>65818573589.5499</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.974889255988345e-18</v>
+        <v>1.824639564991066e-09</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>65818573589.5499</v>
+        <v>8555.387390561234</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.824639564991066e-09</v>
+        <v>3.773696951146916e-06</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>8555.387390561234</v>
+        <v>6.670412334995821</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>3.773696951146916e-06</v>
+        <v>1.931823947395782</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>6.670412334995821</v>
+        <v>0.0001679083843358877</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.931823947395782</v>
+        <v>8.723972170525817</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.0001679083843358877</v>
+        <v>0.9645875375850799</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>8.723972170525817</v>
+        <v>0.6726892710572252</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9645875375850799</v>
+        <v>589</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.6726892710572252</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>589</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>20.19051434748818</v>
       </c>
     </row>
@@ -6183,72 +6093,66 @@
         <v>1.066257000631287e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.3747948496383912</v>
+        <v>3.419926766447166e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.194114605534483</v>
+        <v>1.941338907927946e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>3.419926766447166e-07</v>
+        <v>-0.03099245223725092</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.941338907927946e-06</v>
+        <v>0.09062022906314066</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.03099245223725092</v>
+        <v>0.009166446307033638</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.09062022906314066</v>
+        <v>1.925856990553499</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.009166446307033638</v>
+        <v>3.986999377381668</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.964164435424333</v>
+        <v>8.612447234276893</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>3.986999377381668</v>
+        <v>2.161992423903477e-18</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>8.612447234276893</v>
+        <v>60548228489.04964</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.161992423903477e-18</v>
+        <v>1.986126824315139e-09</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>60548228489.04964</v>
+        <v>7926.054423340249</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.986126824315139e-09</v>
+        <v>4.410384108905814e-06</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>7926.054423340249</v>
+        <v>8.041958412334774</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>4.410384108905814e-06</v>
+        <v>1.557073673551553</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.041958412334774</v>
+        <v>0.0002852331909280308</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.557073673551553</v>
+        <v>8.693664383355664</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.0002852331909280308</v>
+        <v>0.9650723468100602</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>8.693664383355664</v>
+        <v>0.6597285961821259</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9650723468100602</v>
+        <v>543</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.6597285961821259</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>543</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>19.5936623645457</v>
       </c>
     </row>
@@ -6263,72 +6167,66 @@
         <v>1.099163665766244e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.3573634097385722</v>
+        <v>3.485967754661961e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.236201074303807</v>
+        <v>1.93768264902354e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>3.485967754661961e-07</v>
+        <v>-0.03658756749855928</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.93768264902354e-06</v>
+        <v>0.07427839392091663</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.03658756749855928</v>
+        <v>0.00684778955511667</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.07427839392091663</v>
+        <v>1.925013204527601</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.00684778955511667</v>
+        <v>4.355032232223213</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.968548467459864</v>
+        <v>8.147767657347641</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>4.355032232223213</v>
+        <v>2.415627937992324e-18</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>8.147767657347641</v>
+        <v>55802723888.0771</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.415627937992324e-18</v>
+        <v>2.151593585854105e-09</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>55802723888.0771</v>
+        <v>7522.130107628846</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.151593585854105e-09</v>
+        <v>5.812090885545746e-06</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>7522.130107628846</v>
+        <v>10.06030656440413</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>5.812090885545746e-06</v>
+        <v>1.354184327603102</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>10.06030656440413</v>
+        <v>0.0005882403711078509</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.354184327603102</v>
+        <v>8.592389828587065</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.0005882403711078509</v>
+        <v>0.9643058168913189</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>8.592389828587065</v>
+        <v>0.6640456084562034</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9643058168913189</v>
+        <v>498</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.6640456084562034</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>498</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>18.66855731853325</v>
       </c>
     </row>
@@ -6343,72 +6241,66 @@
         <v>1.129874174433883e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.3243871229106339</v>
+        <v>3.549403995056415e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.273832975034259</v>
+        <v>1.9332942821951e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3.549403995056415e-07</v>
+        <v>-0.04186078772160651</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.9332942821951e-06</v>
+        <v>0.05546570159597988</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.04186078772160651</v>
+        <v>0.004823612610156308</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.05546570159597988</v>
+        <v>1.917798224320375</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.004823612610156308</v>
+        <v>4.36074819051249</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.961262229060098</v>
+        <v>7.892332155313192</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>4.36074819051249</v>
+        <v>2.574521996905586e-18</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>7.892332155313192</v>
+        <v>52054769453.90824</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.574521996905586e-18</v>
+        <v>2.305672690400646e-09</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>52054769453.90824</v>
+        <v>6976.179739448436</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.305672690400646e-09</v>
+        <v>5.81884461934754e-06</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>6976.179739448436</v>
+        <v>10.93664065047875</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>5.81884461934754e-06</v>
+        <v>1.261500529569804</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>10.93664065047875</v>
+        <v>0.0006959926375315871</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.261500529569804</v>
+        <v>8.574680677314515</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.0006959926375315871</v>
+        <v>0.9647662677580698</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>8.574680677314515</v>
+        <v>0.6669658050013987</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9647662677580698</v>
+        <v>459</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.6669658050013987</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>459</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>18.68724602242705</v>
       </c>
     </row>
@@ -6423,72 +6315,66 @@
         <v>1.156521664738077e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.2849294412631027</v>
+        <v>3.609612837679223e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.299028892500244</v>
+        <v>1.928276285274913e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>3.609612837679223e-07</v>
+        <v>-0.04556396017941207</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1.928276285274913e-06</v>
+        <v>0.04120213694341168</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.04556396017941207</v>
+        <v>0.003771705341429628</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.04120213694341168</v>
+        <v>1.918027317885587</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.003771705341429628</v>
+        <v>4.139388441518479</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.962437962470555</v>
+        <v>7.596949781383154</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>4.139388441518479</v>
+        <v>2.982252838614093e-18</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>7.596949781383154</v>
+        <v>44517555597.05463</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>2.982252838614093e-18</v>
+        <v>2.704415980691142e-09</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>44517555597.05463</v>
+        <v>5910.266718187189</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>2.704415980691142e-09</v>
+        <v>5.306933901738375e-06</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>5910.266718187189</v>
+        <v>11.17458333226551</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>5.306933901738375e-06</v>
+        <v>1.247852560187879</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>11.17458333226551</v>
+        <v>0.0006626838024555097</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.247852560187879</v>
+        <v>8.593409333963434</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.0006626838024555097</v>
+        <v>0.9639725747006614</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>8.593409333963434</v>
+        <v>0.6790689991272469</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9639725747006614</v>
+        <v>436</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.6790689991272469</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>436</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>19.3417012838187</v>
       </c>
     </row>
@@ -6503,72 +6389,66 @@
         <v>1.178935480316261e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.2452740766563026</v>
+        <v>3.665949753125121e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.314346817152553</v>
+        <v>1.922809325377635e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>3.665949753125121e-07</v>
+        <v>-0.04782452009659903</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1.922809325377635e-06</v>
+        <v>0.03240297270636344</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.04782452009659903</v>
+        <v>0.003336550665262318</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.03240297270636344</v>
+        <v>1.923784821267798</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.003336550665262318</v>
+        <v>3.828672728407502</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.966952463274236</v>
+        <v>7.309708788287425</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>3.828672728407502</v>
+        <v>3.506717533300071e-18</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>7.309708788287425</v>
+        <v>39090638584.84617</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>3.506717533300071e-18</v>
+        <v>3.086233745115508e-09</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>39090638584.84617</v>
+        <v>5358.538002416574</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>3.086233745115508e-09</v>
+        <v>4.716453392257805e-06</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>5358.538002416574</v>
+        <v>11.45087936721363</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>4.716453392257805e-06</v>
+        <v>1.249704030844989</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>11.45087936721363</v>
+        <v>0.0006184338121291907</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.249704030844989</v>
+        <v>8.662500008403404</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.0006184338121291907</v>
+        <v>0.963449574716566</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>8.662500008403404</v>
+        <v>0.6853797715373477</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.963449574716566</v>
+        <v>411</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.6853797715373477</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>411</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>20.10850017167508</v>
       </c>
     </row>
@@ -6583,72 +6463,66 @@
         <v>1.197650399011905e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.2073593421380558</v>
+        <v>3.71773292803482e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.32382127876759</v>
+        <v>1.917036997657124e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>3.71773292803482e-07</v>
+        <v>-0.04917142057611881</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1.917036997657124e-06</v>
+        <v>0.02704140023251709</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.04917142057611881</v>
+        <v>0.003149009138244617</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.02704140023251709</v>
+        <v>1.926177195853578</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.003149009138244617</v>
+        <v>3.979673574158351</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.967431760143909</v>
+        <v>6.823420265451091</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>3.979673574158351</v>
+        <v>4.289790771076972e-18</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>6.823420265451091</v>
+        <v>31762654710.75208</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>4.289790771076972e-18</v>
+        <v>3.799150394909051e-09</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>31762654710.75208</v>
+        <v>4327.825061041762</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>3.799150394909051e-09</v>
+        <v>5.844634625576324e-06</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>4327.825061041762</v>
+        <v>12.20843181816985</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>5.844634625576324e-06</v>
+        <v>1.196095727187441</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>12.20843181816985</v>
+        <v>0.0008711182870712802</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.196095727187441</v>
+        <v>8.644208800923172</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.0008711182870712802</v>
+        <v>0.9628546169810381</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>8.644208800923172</v>
+        <v>0.7140473903838228</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9628546169810381</v>
+        <v>358</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.7140473903838228</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>358</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>19.60345043097514</v>
       </c>
     </row>
@@ -6663,72 +6537,66 @@
         <v>1.213125531428407e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.1712211340437336</v>
+        <v>3.763291632665739e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.329988401271262</v>
+        <v>1.911052685430515e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>3.763291632665739e-07</v>
+        <v>-0.05003141488057356</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1.911052685430515e-06</v>
+        <v>0.02333481492341054</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.05003141488057356</v>
+        <v>0.003047781186887887</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.02333481492341054</v>
+        <v>1.925010130386673</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.003047781186887887</v>
+        <v>3.742002128664586</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.965054815338786</v>
+        <v>6.790076306325177</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>3.742002128664586</v>
+        <v>5.555922200339521e-18</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>6.790076306325177</v>
+        <v>24086304545.6278</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>5.555922200339521e-18</v>
+        <v>5.006630290034571e-09</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>24086304545.6278</v>
+        <v>3223.268634911029</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>5.006630290034571e-09</v>
+        <v>1.269579440630826e-05</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>3223.268634911029</v>
+        <v>12.96259799594805</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>1.269579440630826e-05</v>
+        <v>1.103543200223274</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>12.96259799594805</v>
+        <v>0.002133260962939156</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.103543200223274</v>
+        <v>8.298487113031854</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.002133260962939156</v>
+        <v>0.9616493457211598</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>8.298487113031854</v>
+        <v>0.7236417607144375</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9616493457211598</v>
+        <v>306</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.7236417607144375</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>306</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>17.34289716185765</v>
       </c>
     </row>
@@ -6743,72 +6611,66 @@
         <v>1.225466312604586e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.1366219584355555</v>
+        <v>3.800984146377711e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.33439285387151</v>
+        <v>1.904908646387614e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>3.800984146377711e-07</v>
+        <v>-0.05069176705508145</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1.904908646387614e-06</v>
+        <v>0.02017766629182512</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.05069176705508145</v>
+        <v>0.002976998606978884</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.02017766629182512</v>
+        <v>1.927416270884574</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.002976998606978884</v>
+        <v>3.417059935113127</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.967028231718914</v>
+        <v>6.652846216634231</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>3.417059935113127</v>
+        <v>8.001021638067673e-18</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>6.652846216634231</v>
+        <v>16578520344.28728</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>8.001021638067673e-18</v>
+        <v>7.27900339110279e-09</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>16578520344.28728</v>
+        <v>2199.059488949658</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>7.27900339110279e-09</v>
+        <v>3.046360852928857e-05</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>2199.059488949658</v>
+        <v>13.19333862742515</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>3.046360852928857e-05</v>
+        <v>1.0799191045526</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>13.19333862742515</v>
+        <v>0.005302623164547249</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.0799191045526</v>
+        <v>7.589696614161085</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.005302623164547249</v>
+        <v>0.9614006046514169</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>7.589696614161085</v>
+        <v>0.7415737919320541</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9614006046514169</v>
+        <v>268</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.7415737919320541</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>268</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>14.41079835120353</v>
       </c>
     </row>
@@ -6823,72 +6685,66 @@
         <v>1.234534356181181e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.1034215937364807</v>
+        <v>3.828303941136738e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.33836369696263</v>
+        <v>1.898639183712886e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>3.828303941136738e-07</v>
+        <v>-0.05117398856456559</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1.898639183712886e-06</v>
+        <v>0.01755779004176</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.05117398856456559</v>
+        <v>0.00292733887496052</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.01755779004176</v>
+        <v>1.918447650494522</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.00292733887496052</v>
+        <v>2.772829840134154</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.964375009285799</v>
+        <v>5.955080605393432</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>2.772829840134154</v>
+        <v>1.197759624546483e-17</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>5.955080605393432</v>
+        <v>10743939183.93238</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.197759624546483e-17</v>
+        <v>1.117701423224659e-08</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>10743939183.93238</v>
+        <v>1382.600634928277</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.117701423224659e-08</v>
+        <v>6.11311661977839e-05</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>1382.600634928277</v>
+        <v>13.34724987549236</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>6.11311661977839e-05</v>
+        <v>1.074286795788164</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>13.34724987549236</v>
+        <v>0.01089046097093114</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.074286795788164</v>
+        <v>6.667903121114202</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01089046097093114</v>
+        <v>0.9621389038737896</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>6.667903121114202</v>
+        <v>0.761551452263566</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9621389038737896</v>
+        <v>221</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.761551452263566</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>221</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>11.47635695075071</v>
       </c>
     </row>
@@ -6903,72 +6759,66 @@
         <v>1.240215408046001e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.07128355761303974</v>
+        <v>3.84412522457531e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.343046240146306</v>
+        <v>1.892283954375676e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>3.84412522457531e-07</v>
+        <v>-0.05149453533323956</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1.892283954375676e-06</v>
+        <v>0.01563143216167747</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.05149453533323956</v>
+        <v>0.002896348849062362</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.01563143216167747</v>
+        <v>1.912230352573133</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.002896348849062362</v>
+        <v>2.818727497666846</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.960110047909072</v>
+        <v>5.01361350936283</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2.818727497666846</v>
+        <v>1.496797835561078e-17</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>5.01361350936283</v>
+        <v>8132832063.866931</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.496797835561078e-17</v>
+        <v>1.468481429879903e-08</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>8132832063.866931</v>
+        <v>990.0263544258868</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.468481429879903e-08</v>
+        <v>9.202216108538224e-05</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>990.0263544258868</v>
+        <v>13.83000724416606</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>9.202216108538224e-05</v>
+        <v>1.006238248153527</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>13.83000724416606</v>
+        <v>0.01760099596524344</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.006238248153527</v>
+        <v>5.770290114953814</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01760099596524344</v>
+        <v>0.9616617517772131</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>5.770290114953814</v>
+        <v>0.7471060637484734</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9616617517772131</v>
+        <v>170</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.7471060637484734</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>170</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>9.107164252769813</v>
       </c>
     </row>
@@ -7345,7 +7195,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.283573088097411</v>
+        <v>1.312955508781046</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.127836228964941</v>
@@ -7434,7 +7284,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.30053830108218</v>
+        <v>1.329916742159885</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.049864511751522</v>
@@ -7523,7 +7373,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.319367567391405</v>
+        <v>1.347544537469326</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.125515850545146</v>
@@ -7612,7 +7462,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.310475046829316</v>
+        <v>1.337136150681226</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.998651701831839</v>
@@ -7701,7 +7551,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.313002751097735</v>
+        <v>1.335962523910626</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.081786925043967</v>
@@ -7790,7 +7640,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.286968714012994</v>
+        <v>1.313804009581364</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.9949266609149</v>
@@ -7879,7 +7729,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.274191310265665</v>
+        <v>1.298350997789166</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.961203763175006</v>
@@ -7968,7 +7818,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.290993504425512</v>
+        <v>1.321208710686054</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.762248924252792</v>
@@ -8057,7 +7907,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.330770070314913</v>
+        <v>1.367667285539906</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.956162813380873</v>
@@ -8146,7 +7996,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.352717173576465</v>
+        <v>1.392852047150707</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.786085689498042</v>
@@ -8235,7 +8085,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.372904937591815</v>
+        <v>1.413334593613594</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.917296108892828</v>
@@ -8324,7 +8174,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.385772799624132</v>
+        <v>1.420005501832395</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.836851623994506</v>
@@ -8413,7 +8263,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.364882989929345</v>
+        <v>1.399490405127043</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.853489847919435</v>
@@ -8502,7 +8352,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.358396584139669</v>
+        <v>1.391612017582436</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.875586656726385</v>
@@ -8591,7 +8441,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.34188472715939</v>
+        <v>1.371853440499746</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.836026335843294</v>
@@ -8680,7 +8530,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.339661752552961</v>
+        <v>1.371856949701056</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.866317945547758</v>
@@ -8769,7 +8619,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.334166186530636</v>
+        <v>1.366548771349279</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.844307826442878</v>
@@ -8858,7 +8708,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.326702375807802</v>
+        <v>1.359579524763422</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.863503290669377</v>
@@ -8947,7 +8797,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.343822965866776</v>
+        <v>1.378263058226512</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.825861258864823</v>
@@ -9036,7 +8886,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.369231704125313</v>
+        <v>1.40206015387671</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.706402068594083</v>
@@ -9125,7 +8975,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.471329631035476</v>
+        <v>1.497455656584526</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.905177978846307</v>
@@ -9214,7 +9064,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.597217473083038</v>
+        <v>1.617305915830251</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.009304772626063</v>
@@ -9303,7 +9153,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.610835836041962</v>
+        <v>1.631971076420314</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.261292875980522</v>
@@ -9392,7 +9242,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.606487387364039</v>
+        <v>1.6245916224942</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.218706931705297</v>
@@ -9481,7 +9331,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.613210432193259</v>
+        <v>1.63283636253738</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.231269256466184</v>
@@ -9570,7 +9420,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.616338406569916</v>
+        <v>1.635800047583937</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.230944945344337</v>
@@ -9659,7 +9509,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.616904708495533</v>
+        <v>1.640842974642522</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.2106500161964</v>
@@ -9748,7 +9598,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.628801165233985</v>
+        <v>1.658716862955939</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.235984703451242</v>
@@ -9837,7 +9687,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.635010225610601</v>
+        <v>1.664573659352947</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.237619170537022</v>
@@ -9926,7 +9776,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.705544072539232</v>
+        <v>1.730915005381742</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.097117180874234</v>
@@ -10015,7 +9865,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.660986737745546</v>
+        <v>1.694501161417407</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.272363101692961</v>
@@ -10104,7 +9954,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.713176892697969</v>
+        <v>1.746095592873169</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.181063322818572</v>
@@ -10193,7 +10043,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.677083722780441</v>
+        <v>1.708005999937348</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.329636128346321</v>
@@ -10282,7 +10132,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.627494752242265</v>
+        <v>1.666850424765254</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.340113034186706</v>
@@ -10371,7 +10221,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.614203640273317</v>
+        <v>1.664656832712879</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.415115354206883</v>
@@ -10460,7 +10310,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.593020261265344</v>
+        <v>1.640083032090896</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.415530488106374</v>
@@ -10549,7 +10399,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.528517986852258</v>
+        <v>1.57380658832054</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.398363794288313</v>
@@ -10638,7 +10488,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.535400143331033</v>
+        <v>1.580984047833194</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.384608282800158</v>
@@ -10727,7 +10577,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.482592110246686</v>
+        <v>1.527635498499357</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.456517210066508</v>
@@ -10816,7 +10666,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.481970777505892</v>
+        <v>1.525836468038719</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.477305609623674</v>
@@ -10905,7 +10755,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.475128143654654</v>
+        <v>1.514342842915394</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.336373005823692</v>
@@ -10994,7 +10844,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.473408703908065</v>
+        <v>1.510227423386026</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.400594021575019</v>
@@ -11083,7 +10933,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.428524482897766</v>
+        <v>1.461742589978025</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.574341530571439</v>
@@ -11172,7 +11022,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.397168755648141</v>
+        <v>1.431947538135425</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.566664644982858</v>
@@ -11261,7 +11111,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.383570581141711</v>
+        <v>1.413842947386149</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.313467857660131</v>
@@ -11350,7 +11200,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.371117673361142</v>
+        <v>1.402475016988106</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.636930359249686</v>
@@ -11439,7 +11289,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.365485095879664</v>
+        <v>1.395497002021677</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.50971202385711</v>
@@ -11528,7 +11378,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.380585613995519</v>
+        <v>1.413117929045817</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.264484556895353</v>
@@ -11617,7 +11467,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.381595465374051</v>
+        <v>1.408964430404322</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.299091274169364</v>
@@ -11706,7 +11556,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.392288774228744</v>
+        <v>1.421761489137168</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.448752900980625</v>
@@ -11795,7 +11645,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.379384249642078</v>
+        <v>1.410437354356903</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.346261616777626</v>
@@ -11884,7 +11734,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.395687853777484</v>
+        <v>1.428972188679058</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.500759054019977</v>
@@ -11973,7 +11823,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.394082484593615</v>
+        <v>1.425685969604546</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.365437817831503</v>
@@ -12062,7 +11912,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.432901888669917</v>
+        <v>1.468138806691297</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.527490355130094</v>
@@ -12151,7 +12001,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.420522220399564</v>
+        <v>1.451470669506641</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.459610796986937</v>
@@ -12240,7 +12090,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.427652499264749</v>
+        <v>1.455899350892258</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.505606921654607</v>
@@ -12329,7 +12179,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.421649957708866</v>
+        <v>1.446348347924036</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.369206430877118</v>
@@ -12418,7 +12268,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.442138617390968</v>
+        <v>1.472425310354943</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.476208363538668</v>
@@ -12507,7 +12357,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.443928789212418</v>
+        <v>1.473746528804939</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.50563271454889</v>
@@ -12596,7 +12446,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.456793554427835</v>
+        <v>1.486327971279702</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.185996210576038</v>
@@ -12685,7 +12535,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.480972736830605</v>
+        <v>1.511364202213124</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.336256838727981</v>
@@ -12774,7 +12624,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.466508547486129</v>
+        <v>1.495430004816915</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.428296495506134</v>
@@ -12863,7 +12713,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.472822954358232</v>
+        <v>1.50094471200799</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.414530640551267</v>
@@ -12952,7 +12802,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.484734735569227</v>
+        <v>1.516744904261743</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.336721757071675</v>
@@ -13041,7 +12891,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.475059402708093</v>
+        <v>1.50611848277842</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.487231376645369</v>
@@ -13130,7 +12980,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.504245342351783</v>
+        <v>1.534386170707184</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.476308483285895</v>
@@ -13219,7 +13069,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.484417743267676</v>
+        <v>1.515887468804396</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.373984289290953</v>
@@ -13308,7 +13158,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.489590035821061</v>
+        <v>1.521952413131638</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.40842293683627</v>
@@ -13594,7 +13444,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.304809676857894</v>
+        <v>1.309527374652616</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.868193003997204</v>
@@ -13683,7 +13533,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.315178209973946</v>
+        <v>1.320423364954273</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.826628336177272</v>
@@ -13772,7 +13622,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.344125238878539</v>
+        <v>1.3494486777214</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.135482864769236</v>
@@ -13861,7 +13711,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.290398455930939</v>
+        <v>1.301375694746617</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.77780499455478</v>
@@ -13950,7 +13800,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.275225194468874</v>
+        <v>1.27514718558488</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.781441997549461</v>
@@ -14039,7 +13889,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.268376278031956</v>
+        <v>1.275641836325755</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.800544324068857</v>
@@ -14128,7 +13978,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.258037495358715</v>
+        <v>1.263493486938314</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.793639501507142</v>
@@ -14217,7 +14067,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.275681055923651</v>
+        <v>1.282127647800446</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.788669320603831</v>
@@ -14306,7 +14156,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.285831206366507</v>
+        <v>1.293549711036282</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.782076823499899</v>
@@ -14395,7 +14245,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.293060225161481</v>
+        <v>1.30182374904009</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.77982220379483</v>
@@ -14484,7 +14334,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.292227251175468</v>
+        <v>1.300456599898074</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.787805698076858</v>
@@ -14573,7 +14423,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.297468381894422</v>
+        <v>1.305552413925991</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.778053941346243</v>
@@ -14662,7 +14512,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.288233282648476</v>
+        <v>1.295226754903488</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.77037403623054</v>
@@ -14751,7 +14601,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.287020575475313</v>
+        <v>1.29500443688899</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.755114180506232</v>
@@ -14840,7 +14690,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.279023856994967</v>
+        <v>1.28343567502097</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.768379185057118</v>
@@ -14929,7 +14779,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.25593853590997</v>
+        <v>1.260017069631374</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.735363303825651</v>
@@ -15018,7 +14868,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.254074450491705</v>
+        <v>1.258833003779794</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.780992907112041</v>
@@ -15107,7 +14957,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.278561155926559</v>
+        <v>1.283135758425594</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.624990014564895</v>
@@ -15196,7 +15046,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.328961955847958</v>
+        <v>1.33947608816104</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.680020745541254</v>
@@ -15285,7 +15135,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.379666287168675</v>
+        <v>1.394865021648352</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.642108504934032</v>
@@ -15374,7 +15224,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.401790313107268</v>
+        <v>1.422978860308224</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.669866440571641</v>
@@ -15463,7 +15313,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.461613779717158</v>
+        <v>1.482998124003425</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.657211450017237</v>
@@ -15552,7 +15402,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.468136425602352</v>
+        <v>1.488905589949987</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.693089285270493</v>
@@ -15641,7 +15491,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.471927178059481</v>
+        <v>1.494348399422333</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.68931165942406</v>
@@ -15730,7 +15580,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.476325476653384</v>
+        <v>1.501079607647368</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.701748716258856</v>
@@ -15819,7 +15669,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.482653255701915</v>
+        <v>1.508562984116257</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.700775115915503</v>
@@ -15908,7 +15758,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.485894899948587</v>
+        <v>1.513069722569191</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.692980897766412</v>
@@ -15997,7 +15847,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.476453047352173</v>
+        <v>1.507732231295859</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.711125338477792</v>
@@ -16086,7 +15936,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.439648200973179</v>
+        <v>1.444518372089692</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.762660948685762</v>
@@ -16175,7 +16025,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.436258694623453</v>
+        <v>1.444412204299549</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.565295754888257</v>
@@ -16264,7 +16114,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.437028635929971</v>
+        <v>1.478114035488284</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.751595953332673</v>
@@ -16353,7 +16203,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.391789328022306</v>
+        <v>1.426178117504846</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.79458187568229</v>
@@ -16442,7 +16292,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.32281083458064</v>
+        <v>1.342969011211536</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.802753105361715</v>
@@ -16531,7 +16381,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.314087998590952</v>
+        <v>1.332413961892804</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.798008998856111</v>
@@ -16620,7 +16470,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.311631185985299</v>
+        <v>1.330876302815946</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.781176132108301</v>
@@ -16709,7 +16559,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.304481211235633</v>
+        <v>1.32028298092392</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.798174825766253</v>
@@ -16798,7 +16648,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.292301118848844</v>
+        <v>1.306526221280996</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.789297729394674</v>
@@ -16887,7 +16737,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.292436165066983</v>
+        <v>1.308931044710773</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.800485741727861</v>
@@ -16976,7 +16826,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.289211905577317</v>
+        <v>1.304196737298474</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.805860262547289</v>
@@ -17065,7 +16915,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.291718593378552</v>
+        <v>1.306166553585943</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.804969777582527</v>
@@ -17154,7 +17004,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.289508338009087</v>
+        <v>1.304660406810743</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.815470049163132</v>
@@ -17243,7 +17093,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.292032894287966</v>
+        <v>1.305406434890324</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.825911009518892</v>
@@ -17332,7 +17182,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.290078395393675</v>
+        <v>1.302954586875038</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.84601577094743</v>
@@ -17421,7 +17271,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.332388179348375</v>
+        <v>1.352884382016317</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.94974271712491</v>
@@ -17510,7 +17360,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.369326898286025</v>
+        <v>1.39051318474486</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.980450409671609</v>
@@ -17599,7 +17449,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.389722944531447</v>
+        <v>1.413716698552978</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.681834452970087</v>
@@ -17688,7 +17538,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.489947848600879</v>
+        <v>1.522046082993994</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.729859549818898</v>
@@ -17777,7 +17627,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.575308229227385</v>
+        <v>1.609226909012339</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.528169976583103</v>
@@ -17866,7 +17716,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.577871750444607</v>
+        <v>1.608428144682457</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.519397228932129</v>
@@ -17955,7 +17805,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.581778424851385</v>
+        <v>1.611285833199771</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.661846737117008</v>
@@ -18044,7 +17894,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.584509328282073</v>
+        <v>1.620071368770184</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.662898858060366</v>
@@ -18133,7 +17983,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.536240781455783</v>
+        <v>1.565389633168979</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.264054275998412</v>
@@ -18222,7 +18072,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.519882047023856</v>
+        <v>1.552281659961546</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.290223693883294</v>
@@ -18311,7 +18161,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.536731177010529</v>
+        <v>1.573610164101104</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.333313348291228</v>
@@ -18400,7 +18250,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.538790315833987</v>
+        <v>1.577931509624193</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.351263890741781</v>
@@ -18489,7 +18339,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.547658644289498</v>
+        <v>1.584490059388507</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.339804694514453</v>
@@ -18578,7 +18428,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.561558034320071</v>
+        <v>1.594993315461124</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.213153979733669</v>
@@ -18667,7 +18517,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.601394351594355</v>
+        <v>1.632392554152652</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.388868370176709</v>
@@ -18756,7 +18606,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.605080102104179</v>
+        <v>1.638757626224695</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.342685861714478</v>
@@ -18845,7 +18695,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.620948042292294</v>
+        <v>1.650872752880217</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.258034898662975</v>
@@ -18934,7 +18784,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.640412907682178</v>
+        <v>1.668193342948524</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.34701152061001</v>
@@ -19023,7 +18873,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.621122875240478</v>
+        <v>1.649709625695592</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.355809833300955</v>
@@ -19112,7 +18962,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.618902450377188</v>
+        <v>1.647551634973272</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.375756042550332</v>
@@ -19201,7 +19051,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.63113877213919</v>
+        <v>1.658884759427566</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.359267563262219</v>
@@ -19290,7 +19140,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.642748044718165</v>
+        <v>1.670967194750811</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.253087411714654</v>
@@ -19379,7 +19229,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.658903317368563</v>
+        <v>1.685493021944793</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.32206021861026</v>
@@ -19468,7 +19318,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.762569734385879</v>
+        <v>1.780690650299362</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.131735171579825</v>
@@ -19557,7 +19407,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.78195028367054</v>
+        <v>1.797119592144008</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.216648111397395</v>
@@ -19843,7 +19693,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.639867945609726</v>
+        <v>1.633730947428923</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.026012830897027</v>
@@ -19932,7 +19782,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.644840455399015</v>
+        <v>1.637328664461053</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.740477248957694</v>
@@ -20021,7 +19871,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.659455036320303</v>
+        <v>1.651323793275173</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.859077218802536</v>
@@ -20110,7 +19960,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.645982811107656</v>
+        <v>1.639882175593287</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.728503794686201</v>
@@ -20199,7 +20049,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.651377835690684</v>
+        <v>1.644504914263824</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.835484756312746</v>
@@ -20288,7 +20138,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.661839191108501</v>
+        <v>1.66138470828654</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.335996732850316</v>
@@ -20377,7 +20227,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.664695824702281</v>
+        <v>1.667501680760572</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.155436002359382</v>
@@ -20466,7 +20316,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.663882449440629</v>
+        <v>1.661780061803671</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.158291679378433</v>
@@ -20555,7 +20405,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.690407736629659</v>
+        <v>1.685988955154321</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.261153188423103</v>
@@ -20644,7 +20494,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.696710382264897</v>
+        <v>1.692984310319863</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.415513737575431</v>
@@ -20733,7 +20583,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.696912762634391</v>
+        <v>1.692192780518681</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.31249717898774</v>
@@ -20822,7 +20672,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.706331720378844</v>
+        <v>1.700753605974306</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.316381725320157</v>
@@ -20911,7 +20761,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.694196005784647</v>
+        <v>1.689387533908137</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.256860515152994</v>
@@ -21000,7 +20850,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.686443110950135</v>
+        <v>1.67901365629546</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.268619271278508</v>
@@ -21089,7 +20939,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.673892516239196</v>
+        <v>1.673662240728946</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.21310056301026</v>
@@ -21178,7 +21028,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.666826036944491</v>
+        <v>1.670738856342682</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.172384766062845</v>
@@ -21267,7 +21117,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.663983520679768</v>
+        <v>1.66848512961551</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.234224696640234</v>
@@ -21356,7 +21206,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.668136581478098</v>
+        <v>1.672399121481128</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.21685413778976</v>
@@ -21445,7 +21295,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.704051668337748</v>
+        <v>1.701538947389566</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.251397604813075</v>
@@ -21534,7 +21384,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.724890195976174</v>
+        <v>1.713418688899887</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.236071520364319</v>
@@ -21623,7 +21473,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.753542773334801</v>
+        <v>1.730589679005235</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.82424880145896</v>
@@ -21712,7 +21562,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.783653152173903</v>
+        <v>1.753324216922393</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.080831067295599</v>
@@ -21801,7 +21651,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.798102361692884</v>
+        <v>1.769362722639869</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.345857083921447</v>
@@ -21890,7 +21740,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.802807574035272</v>
+        <v>1.776511270552242</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.280664149604723</v>
@@ -21979,7 +21829,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.823574872542231</v>
+        <v>1.802992398677915</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.42705422634286</v>
@@ -22068,7 +21918,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.828260011800258</v>
+        <v>1.81543355015764</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.53523798363634</v>
@@ -22157,7 +22007,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.839241725084712</v>
+        <v>1.831195930463452</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.625182937834433</v>
@@ -22246,7 +22096,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.843472752960907</v>
+        <v>1.839025707841731</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.405785132617178</v>
@@ -22335,7 +22185,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.83557977377696</v>
+        <v>1.840713410797543</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.684300184250277</v>
@@ -22424,7 +22274,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.858368438224049</v>
+        <v>1.863388200936185</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.947043892520032</v>
@@ -22513,7 +22363,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.855390697942105</v>
+        <v>1.871354917073443</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.59855929637571</v>
@@ -22602,7 +22452,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.862614208749608</v>
+        <v>1.882753516419411</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.393679369351008</v>
@@ -22691,7 +22541,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.847426917926156</v>
+        <v>1.87170753945622</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.669089416036669</v>
@@ -22780,7 +22630,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.831384677390681</v>
+        <v>1.860119636208364</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.681010442259646</v>
@@ -22869,7 +22719,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.833167776305768</v>
+        <v>1.866549086609943</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.336806517137396</v>
@@ -22958,7 +22808,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.821812809203578</v>
+        <v>1.86002747667559</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.522499755215295</v>
@@ -23047,7 +22897,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.795649176561551</v>
+        <v>1.835773196364985</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.76566801824889</v>
@@ -23136,7 +22986,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.795666250588063</v>
+        <v>1.838661613080264</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.578961404180574</v>
@@ -23225,7 +23075,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.758790469324393</v>
+        <v>1.801825954691771</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.219821694098417</v>
@@ -23314,7 +23164,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.755708795736789</v>
+        <v>1.794550528713674</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.150069779798735</v>
@@ -23403,7 +23253,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.750889746181576</v>
+        <v>1.782210318081244</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.037966026383196</v>
@@ -23492,7 +23342,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.740984760954666</v>
+        <v>1.766883710890228</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.213550653320759</v>
@@ -23581,7 +23431,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.717209073409653</v>
+        <v>1.744577323784507</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.175305419701448</v>
@@ -23670,7 +23520,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.713522160916362</v>
+        <v>1.73970175785376</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.424557659002295</v>
@@ -23759,7 +23609,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.703173382772318</v>
+        <v>1.727414733761188</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.138238089436133</v>
@@ -23848,7 +23698,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.695817105243558</v>
+        <v>1.715973253313064</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.297144750753157</v>
@@ -23937,7 +23787,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.696378227346274</v>
+        <v>1.711256925236896</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.419765069755534</v>
@@ -24026,7 +23876,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.706276984097209</v>
+        <v>1.71916316301438</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.199523728670027</v>
@@ -24115,7 +23965,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.703434401641181</v>
+        <v>1.7145872643955</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.01991512147189</v>
@@ -24204,7 +24054,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.703454386726363</v>
+        <v>1.715606611969502</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.059005462610322</v>
@@ -24293,7 +24143,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.699521803009293</v>
+        <v>1.708865823306341</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.921394962431089</v>
@@ -24382,7 +24232,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.712397712904463</v>
+        <v>1.719476119129343</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.482182476257649</v>
@@ -24471,7 +24321,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.714742554073729</v>
+        <v>1.714883314875243</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.249414535515916</v>
@@ -24560,7 +24410,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.746284826600277</v>
+        <v>1.74736641675118</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.390509888940576</v>
@@ -24649,7 +24499,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.735675877844417</v>
+        <v>1.736219702266085</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.421419119267446</v>
@@ -24738,7 +24588,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.743220318573754</v>
+        <v>1.748354603721826</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.548150717948979</v>
@@ -24827,7 +24677,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.743864060702065</v>
+        <v>1.748648046813531</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.679543367435142</v>
@@ -24916,7 +24766,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.754476563282446</v>
+        <v>1.764228220033596</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.609073580820205</v>
@@ -25005,7 +24855,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.757360541832961</v>
+        <v>1.768785343509454</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.275761933063392</v>
@@ -25094,7 +24944,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.771400092339523</v>
+        <v>1.77907869376016</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.228403259086855</v>
@@ -25183,7 +25033,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.781389266476554</v>
+        <v>1.785480322134635</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.546043545471892</v>
@@ -25272,7 +25122,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.769139927364887</v>
+        <v>1.773956376725988</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.397134961924083</v>
@@ -25361,7 +25211,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.771125360764048</v>
+        <v>1.776556107075803</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.484087653115461</v>
@@ -25450,7 +25300,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.771664301724874</v>
+        <v>1.779925826506247</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.605223354093634</v>
@@ -25539,7 +25389,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.777597572157147</v>
+        <v>1.787141747950825</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.538613242596743</v>
@@ -25628,7 +25478,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.788868614209494</v>
+        <v>1.800040047787294</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.012745000749528</v>
@@ -25717,7 +25567,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.790123658300161</v>
+        <v>1.799105544507895</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.490652571389915</v>
@@ -25806,7 +25656,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.789897419642371</v>
+        <v>1.802786189482573</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.348908067756227</v>
@@ -26092,7 +25942,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.617259511816659</v>
+        <v>1.624654764785752</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.73940171832397</v>
@@ -26181,7 +26031,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.61370437239435</v>
+        <v>1.618626813036066</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.701451953712954</v>
@@ -26270,7 +26120,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.613710160763407</v>
+        <v>1.621385983199755</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.701442408199647</v>
@@ -26359,7 +26209,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.590777857951355</v>
+        <v>1.601245936388352</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.628969283381694</v>
@@ -26448,7 +26298,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.560702277562868</v>
+        <v>1.568630094287097</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.870938329869276</v>
@@ -26537,7 +26387,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.555315831977744</v>
+        <v>1.57608690449216</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.498285453686772</v>
@@ -26626,7 +26476,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.559261888380921</v>
+        <v>1.575683831679702</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.39931243687059</v>
@@ -26715,7 +26565,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.549008379429621</v>
+        <v>1.568949569982018</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.43267604306418</v>
@@ -26804,7 +26654,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.527006525449301</v>
+        <v>1.544649766698757</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.399169509287674</v>
@@ -26893,7 +26743,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.52369456701163</v>
+        <v>1.54708762808133</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.46206611439941</v>
@@ -26982,7 +26832,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.515112644612434</v>
+        <v>1.54036860741659</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.232464462586711</v>
@@ -27071,7 +26921,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.512751781398928</v>
+        <v>1.541674389744842</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.331674968283286</v>
@@ -27160,7 +27010,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.456576974732464</v>
+        <v>1.477151789169713</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.411451487941807</v>
@@ -27249,7 +27099,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.434528861268071</v>
+        <v>1.45983655654298</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.375789784859834</v>
@@ -27338,7 +27188,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.432229308660265</v>
+        <v>1.459464122896402</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.362246912888725</v>
@@ -27427,7 +27277,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.430282640227109</v>
+        <v>1.455135601506001</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.34487225077611</v>
@@ -27516,7 +27366,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.428126050179211</v>
+        <v>1.451798432925842</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.396046270866272</v>
@@ -27605,7 +27455,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.431269817020893</v>
+        <v>1.455410864605006</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.215324692368903</v>
@@ -27694,7 +27544,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.438252389917615</v>
+        <v>1.45875433110327</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.206731099000555</v>
@@ -27783,7 +27633,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.474581831878299</v>
+        <v>1.479294599548039</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.065640165718482</v>
@@ -27872,7 +27722,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.444468597703905</v>
+        <v>1.455602387187529</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.158701265013279</v>
@@ -27961,7 +27811,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.444411019202332</v>
+        <v>1.459653669404233</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.116219388342602</v>
@@ -28050,7 +27900,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.471934982209508</v>
+        <v>1.486524817127166</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.118734701193525</v>
@@ -28139,7 +27989,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.495306729792218</v>
+        <v>1.505764829959889</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.144233005502049</v>
@@ -28228,7 +28078,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.506283536453244</v>
+        <v>1.51630511003304</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.13872795277053</v>
@@ -28317,7 +28167,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.514871115082031</v>
+        <v>1.525364183743938</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.146759198046178</v>
@@ -28406,7 +28256,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.481545775022395</v>
+        <v>1.492613169776713</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.149548986529309</v>
@@ -28495,7 +28345,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.516941861341732</v>
+        <v>1.527200715063704</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.109541057979967</v>
@@ -28584,7 +28434,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.515398188918019</v>
+        <v>1.526649922984324</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.251641551543176</v>
@@ -28673,7 +28523,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.519093550608178</v>
+        <v>1.531154995190054</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.176646534961458</v>
@@ -28762,7 +28612,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.499068753341126</v>
+        <v>1.513009979899908</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.237770364591357</v>
@@ -28851,7 +28701,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.511767713360254</v>
+        <v>1.527750704828839</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.261602092397833</v>
@@ -28940,7 +28790,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.510183390150833</v>
+        <v>1.524283417002646</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.157679346740771</v>
@@ -29029,7 +28879,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.511301113338926</v>
+        <v>1.528156188764991</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.240452893241928</v>
@@ -29118,7 +28968,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.544309064435291</v>
+        <v>1.556607744765963</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.992211619580698</v>
@@ -29207,7 +29057,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.564051810125087</v>
+        <v>1.570387878508477</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.318378095707193</v>
@@ -29296,7 +29146,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.577829468420747</v>
+        <v>1.581029298629665</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.272497685808942</v>
@@ -29385,7 +29235,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.578534324001104</v>
+        <v>1.586692290533663</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.339259573762583</v>
@@ -29474,7 +29324,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.548699964787572</v>
+        <v>1.558758007804327</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.375369426080276</v>
@@ -29563,7 +29413,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.552464787907402</v>
+        <v>1.561423771799854</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.459311867540018</v>
@@ -29652,7 +29502,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.560261930797877</v>
+        <v>1.572364304061245</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.376610691439975</v>
@@ -29741,7 +29591,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.597816371833519</v>
+        <v>1.61058281781603</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.63727600723462</v>
@@ -29830,7 +29680,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.612559054975417</v>
+        <v>1.616773633871056</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.502624734870644</v>
@@ -29919,7 +29769,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.612902240438879</v>
+        <v>1.624931889601593</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.581303874086073</v>
@@ -30008,7 +29858,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.600177810985586</v>
+        <v>1.609902221842592</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.58893476084524</v>
@@ -30097,7 +29947,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.639605123772055</v>
+        <v>1.648651627294472</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.560388175014725</v>
@@ -30186,7 +30036,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.630136889612079</v>
+        <v>1.638693713235568</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.656117030570212</v>
@@ -30275,7 +30125,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.622868796241127</v>
+        <v>1.639232280868828</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.469366826445806</v>
@@ -30364,7 +30214,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.614403556414258</v>
+        <v>1.631218948445316</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.550460546449124</v>
@@ -30453,7 +30303,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.6148772402916</v>
+        <v>1.636140893400008</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.515894710865573</v>
@@ -30542,7 +30392,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.615026553430866</v>
+        <v>1.638113941931991</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.489877853867511</v>
@@ -30631,7 +30481,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.601178191576237</v>
+        <v>1.628512115439795</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.677372346847076</v>
@@ -30720,7 +30570,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.597415432470911</v>
+        <v>1.621638162720551</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.513181530909879</v>
@@ -30809,7 +30659,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.612688850837775</v>
+        <v>1.640479339566382</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.68376500777563</v>
@@ -30898,7 +30748,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.612695354866883</v>
+        <v>1.638459360096438</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.746718382916867</v>
@@ -30987,7 +30837,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.595247696161429</v>
+        <v>1.62397689980573</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.899204783247739</v>
@@ -31076,7 +30926,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.583336801031539</v>
+        <v>1.612450223564729</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.88276284196591</v>
@@ -31165,7 +31015,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.564100856462715</v>
+        <v>1.590016808302023</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.70573460485691</v>
@@ -31254,7 +31104,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.562981942428335</v>
+        <v>1.588305379632657</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.885927073019302</v>
@@ -31343,7 +31193,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.557975409871535</v>
+        <v>1.58840138964216</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.819964670264935</v>
@@ -31432,7 +31282,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.540850041336158</v>
+        <v>1.565411920812992</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.895447667519334</v>
@@ -31521,7 +31371,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.535736951668785</v>
+        <v>1.560442351988648</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.739907204737528</v>
@@ -31610,7 +31460,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.542846416311572</v>
+        <v>1.568539139174529</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.606281680756484</v>
@@ -31699,7 +31549,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.550324921412081</v>
+        <v>1.572960141490489</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.873524556888079</v>
@@ -31788,7 +31638,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.525878492554448</v>
+        <v>1.550585970433056</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.910521323190721</v>
@@ -31877,7 +31727,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.526437743916478</v>
+        <v>1.553415435280679</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.922485759267853</v>
@@ -31966,7 +31816,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.527387036331731</v>
+        <v>1.554791434956748</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.069832172814867</v>
@@ -32055,7 +31905,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.517907487980877</v>
+        <v>1.546656833559136</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.011922907008563</v>
@@ -32341,7 +32191,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.163077904950676</v>
+        <v>1.157143988204788</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.09719214415265</v>
@@ -32430,7 +32280,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.174403920496208</v>
+        <v>1.168979457009578</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.973705891376177</v>
@@ -32519,7 +32369,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.186592284854396</v>
+        <v>1.181730294692244</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.120815375269412</v>
@@ -32608,7 +32458,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.190901011231346</v>
+        <v>1.183604891910139</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.963686708394895</v>
@@ -32697,7 +32547,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.198827921142872</v>
+        <v>1.186981352866459</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.09543549480001</v>
@@ -32786,7 +32636,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.208793386138848</v>
+        <v>1.198340590160168</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.999576605851387</v>
@@ -32875,7 +32725,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.21688391035116</v>
+        <v>1.206060956880883</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.043566817989928</v>
@@ -32964,7 +32814,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.232128637067924</v>
+        <v>1.22203792046591</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.028981603831495</v>
@@ -33053,7 +32903,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.238105687565081</v>
+        <v>1.229295925350094</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.918487875014241</v>
@@ -33142,7 +32992,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.255852909624064</v>
+        <v>1.246415713617154</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.894829847397516</v>
@@ -33231,7 +33081,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.279392857667298</v>
+        <v>1.269683096073822</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.942072368575588</v>
@@ -33320,7 +33170,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.302528769692365</v>
+        <v>1.291320882042015</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.995511404555319</v>
@@ -33409,7 +33259,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.28556325880414</v>
+        <v>1.276227268104252</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.96497310066177</v>
@@ -33498,7 +33348,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.28410583149409</v>
+        <v>1.272152447671735</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.85654623885079</v>
@@ -33587,7 +33437,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.275274296480985</v>
+        <v>1.267867187341818</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.018021212140621</v>
@@ -33676,7 +33526,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.278086420522189</v>
+        <v>1.274444757217707</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.913777105438403</v>
@@ -33765,7 +33615,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.265036790846974</v>
+        <v>1.263385551240896</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.027701002239097</v>
@@ -33854,7 +33704,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.257182055117235</v>
+        <v>1.255846453455347</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.930863874443135</v>
@@ -33943,7 +33793,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.26502391295948</v>
+        <v>1.268185314402346</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.932416237888235</v>
@@ -34032,7 +33882,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.2882920998749</v>
+        <v>1.296968602976926</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.852468040114262</v>
@@ -34121,7 +33971,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.313980003699841</v>
+        <v>1.328501523257818</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.867544458345472</v>
@@ -34210,7 +34060,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.388383989882658</v>
+        <v>1.412797026242186</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.988599769672753</v>
@@ -34299,7 +34149,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.384974741558829</v>
+        <v>1.407857170213695</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.111571541273355</v>
@@ -34388,7 +34238,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.382749532882843</v>
+        <v>1.407732471433133</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.130673660548294</v>
@@ -34477,7 +34327,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.387665013963677</v>
+        <v>1.416850443542535</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.116266084800828</v>
@@ -34566,7 +34416,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.385939840001928</v>
+        <v>1.417231407826242</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.135079106354341</v>
@@ -34655,7 +34505,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.358528313621749</v>
+        <v>1.391303486391874</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.939858491780684</v>
@@ -34744,7 +34594,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.352853959655764</v>
+        <v>1.388122651729461</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.977022172909898</v>
@@ -34833,7 +34683,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.353338296968866</v>
+        <v>1.388626756715001</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.941907110932449</v>
@@ -34922,7 +34772,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.37356812077628</v>
+        <v>1.408007941188955</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.851602208614082</v>
@@ -35011,7 +34861,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.336996495818876</v>
+        <v>1.360046975539552</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.848742271085784</v>
@@ -35100,7 +34950,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.371719751254593</v>
+        <v>1.396632504944082</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.792509094589321</v>
@@ -35189,7 +35039,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.353499662956407</v>
+        <v>1.365918834016024</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.914214458934583</v>
@@ -35278,7 +35128,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.331809188644538</v>
+        <v>1.343849267669385</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.941991270017811</v>
@@ -35367,7 +35217,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.302638541415694</v>
+        <v>1.321304561983001</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.939800740436639</v>
@@ -35456,7 +35306,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.292063909168214</v>
+        <v>1.30531882523096</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.969462583496546</v>
@@ -35545,7 +35395,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.25015052472414</v>
+        <v>1.259052936998886</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.006140640382843</v>
@@ -35634,7 +35484,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.260702049228918</v>
+        <v>1.269903778338888</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.053498590922674</v>
@@ -35723,7 +35573,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.242059083538377</v>
+        <v>1.244800200808465</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.040968816705993</v>
@@ -35812,7 +35662,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.241761842784755</v>
+        <v>1.241822134915533</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.069919370824675</v>
@@ -35901,7 +35751,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.241051824381668</v>
+        <v>1.236332913976919</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.998481666600692</v>
@@ -35990,7 +35840,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.254437438258567</v>
+        <v>1.246690012120414</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.159544204533694</v>
@@ -36079,7 +35929,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.237897838919548</v>
+        <v>1.228934456769119</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.108103026136736</v>
@@ -36168,7 +36018,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.223390890658249</v>
+        <v>1.219601649433264</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.14599705973504</v>
@@ -36257,7 +36107,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.225966980804065</v>
+        <v>1.215751709191614</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.019325463166464</v>
@@ -36346,7 +36196,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.217760581400258</v>
+        <v>1.217686792318275</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.275534098165285</v>
@@ -36435,7 +36285,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.223063755784698</v>
+        <v>1.223996017670788</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.290998616834035</v>
@@ -36524,7 +36374,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.240306487380578</v>
+        <v>1.244065478098171</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.018325973139039</v>
@@ -36613,7 +36463,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.242666240480626</v>
+        <v>1.240329199213286</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.967165584030703</v>
@@ -36702,7 +36552,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.247623155948973</v>
+        <v>1.247042374856365</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.198327128185396</v>
@@ -36791,7 +36641,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.24243998701491</v>
+        <v>1.242612792778802</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.046102424762547</v>
@@ -36880,7 +36730,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.241590542817147</v>
+        <v>1.245222454718712</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.097333324658248</v>
@@ -36969,7 +36819,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.246999383017225</v>
+        <v>1.250412333681656</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.05917530749181</v>
@@ -37058,7 +36908,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.2640184480319</v>
+        <v>1.27413007780551</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.074601059947861</v>
@@ -37147,7 +36997,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.261312901501305</v>
+        <v>1.270601170763922</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.099799902176236</v>
@@ -37236,7 +37086,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.276691864390882</v>
+        <v>1.286657444637799</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.118392603527311</v>
@@ -37325,7 +37175,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.270506367837086</v>
+        <v>1.279858112193176</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.994499166405175</v>
@@ -37414,7 +37264,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.298733355605667</v>
+        <v>1.309563432384882</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.135296915576294</v>
@@ -37503,7 +37353,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.297772686828274</v>
+        <v>1.307434083604487</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.090575028264237</v>
@@ -37592,7 +37442,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.320580575342988</v>
+        <v>1.333427328870112</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.937057108853771</v>
@@ -37681,7 +37531,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.33705011875925</v>
+        <v>1.349987142257918</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.989608193155463</v>
@@ -37770,7 +37620,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.321024133256487</v>
+        <v>1.330874612918128</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.058077466021883</v>
@@ -37859,7 +37709,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.318005221947837</v>
+        <v>1.327782880210798</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.016464429809534</v>
@@ -37948,7 +37798,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.342893265491034</v>
+        <v>1.359413568122845</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.024110524524738</v>
@@ -38037,7 +37887,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.340939860465969</v>
+        <v>1.356423758561508</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.993969535273125</v>
@@ -38126,7 +37976,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.381590099010932</v>
+        <v>1.392257761816227</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.073493294429335</v>
@@ -38215,7 +38065,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.386251611001873</v>
+        <v>1.40023192224874</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.096840378136559</v>
@@ -38304,7 +38154,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.387110419235384</v>
+        <v>1.399613547291149</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.106256201500337</v>
@@ -38590,7 +38440,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.512704807293888</v>
+        <v>1.555997354839294</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.733405944920818</v>
@@ -38679,7 +38529,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.528311212536076</v>
+        <v>1.569055127161711</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.580746440912719</v>
@@ -38768,7 +38618,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.552020884562896</v>
+        <v>1.58911022246881</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.787073548681512</v>
@@ -38857,7 +38707,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.534538020598673</v>
+        <v>1.572892724779931</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.490697128486556</v>
@@ -38946,7 +38796,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.545435403286831</v>
+        <v>1.577166342029911</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.60436413436187</v>
@@ -39035,7 +38885,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.443335935048526</v>
+        <v>1.481598194894941</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.863304300923619</v>
@@ -39124,7 +38974,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.39778771066502</v>
+        <v>1.429134131013048</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.83217198745996</v>
@@ -39213,7 +39063,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.397984422380071</v>
+        <v>1.432102891553223</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.840762278895099</v>
@@ -39302,7 +39152,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.398604066670093</v>
+        <v>1.435281621802347</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.839295975553721</v>
@@ -39391,7 +39241,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.410912215410683</v>
+        <v>1.447187521864667</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.78171183390598</v>
@@ -39480,7 +39330,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.41978842371292</v>
+        <v>1.455716605452038</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.816470151825261</v>
@@ -39569,7 +39419,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.425684472702373</v>
+        <v>1.459736740450918</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.802465063601163</v>
@@ -39658,7 +39508,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.407017788850435</v>
+        <v>1.438622224390895</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.805674801017933</v>
@@ -39747,7 +39597,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.395517528127917</v>
+        <v>1.426421253365436</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.788628927943685</v>
@@ -39836,7 +39686,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.381232854190706</v>
+        <v>1.411210083118693</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.779711911042341</v>
@@ -39925,7 +39775,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.367985436661056</v>
+        <v>1.400097186306151</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.775246529482243</v>
@@ -40014,7 +39864,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.361230324283087</v>
+        <v>1.393578211820817</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.770034366419226</v>
@@ -40103,7 +39953,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.350065383862439</v>
+        <v>1.382165553475749</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.750485743956727</v>
@@ -40192,7 +40042,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.360548547579635</v>
+        <v>1.392375499663347</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.75153732213377</v>
@@ -40281,7 +40131,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.390503970422768</v>
+        <v>1.421636564458628</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.666012512993059</v>
@@ -40370,7 +40220,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.527393048478309</v>
+        <v>1.554053708523397</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.941987513280113</v>
@@ -40459,7 +40309,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.731287048193607</v>
+        <v>1.741107133809876</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.283687407902235</v>
@@ -40548,7 +40398,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.761950205557348</v>
+        <v>1.755562617026668</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.916086482009759</v>
@@ -40637,7 +40487,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.763057305906449</v>
+        <v>1.753917557787013</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.826246309949426</v>
@@ -40726,7 +40576,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.760933655051639</v>
+        <v>1.749666148756731</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.74165839885944</v>
@@ -40815,7 +40665,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.759176203061214</v>
+        <v>1.7487795941238</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.812447961489389</v>
@@ -40904,7 +40754,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.746759459116083</v>
+        <v>1.738327876826835</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.582251990330486</v>
@@ -40993,7 +40843,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.747455196468658</v>
+        <v>1.749341582534203</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.530287236024297</v>
@@ -41082,7 +40932,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.746924668796447</v>
+        <v>1.750043562113838</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.430606719051078</v>
@@ -41171,7 +41021,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.784898825688813</v>
+        <v>1.782252173556288</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.33965847237916</v>
@@ -41260,7 +41110,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.768916563898117</v>
+        <v>1.774809506808251</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.739603810715221</v>
@@ -41349,7 +41199,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.800881542540342</v>
+        <v>1.805830208979666</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.408690720540575</v>
@@ -41438,7 +41288,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.766940683267483</v>
+        <v>1.768010191084753</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.67408584644333</v>
@@ -41527,7 +41377,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.736195790729459</v>
+        <v>1.748842511856121</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.624665137346641</v>
@@ -41616,7 +41466,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.730764904647878</v>
+        <v>1.75184090571563</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.786820210507212</v>
@@ -41705,7 +41555,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.704733392304143</v>
+        <v>1.724848626242885</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.55715603454535</v>
@@ -41794,7 +41644,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.653376002076158</v>
+        <v>1.680209537394539</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.746301047592906</v>
@@ -41883,7 +41733,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.662848661733398</v>
+        <v>1.698747722900333</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.693168691392886</v>
@@ -41972,7 +41822,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.621277896427989</v>
+        <v>1.659777554753218</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.826118358720191</v>
@@ -42061,7 +41911,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.62328592567696</v>
+        <v>1.660383216764958</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.695062460478045</v>
@@ -42150,7 +42000,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.613048495993303</v>
+        <v>1.645290206060115</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.561141056018001</v>
@@ -42239,7 +42089,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.619338820399268</v>
+        <v>1.648248062263617</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.944039865799973</v>
@@ -42328,7 +42178,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.581255776082388</v>
+        <v>1.608708772568017</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.864070027003474</v>
@@ -42417,7 +42267,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.553813750543574</v>
+        <v>1.587065432401906</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.987118512628236</v>
@@ -42506,7 +42356,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.543836390139152</v>
+        <v>1.572741116497149</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.612728288026733</v>
@@ -42595,7 +42445,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.531650128718806</v>
+        <v>1.559741505895224</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.945849725197404</v>
@@ -42684,7 +42534,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.526905031309632</v>
+        <v>1.554265897906836</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.964974390695086</v>
@@ -42773,7 +42623,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.55378340183521</v>
+        <v>1.581152251309618</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.590399029467758</v>
@@ -42862,7 +42712,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.549304154622067</v>
+        <v>1.569686548147325</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.527352182458325</v>
@@ -42951,7 +42801,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.547273220063553</v>
+        <v>1.55859395797489</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.689922314168656</v>
@@ -43040,7 +42890,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.541913603856687</v>
+        <v>1.556635676687473</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.618319224692302</v>
@@ -43129,7 +42979,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.550013272023263</v>
+        <v>1.561405652433904</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.74159961107626</v>
@@ -43218,7 +43068,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.546685847099648</v>
+        <v>1.554214793630482</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.604916724149181</v>
@@ -43307,7 +43157,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.581797477916925</v>
+        <v>1.583953045726417</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.789332699077923</v>
@@ -43396,7 +43246,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.568803580499002</v>
+        <v>1.571451018469476</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.824002706541629</v>
@@ -43485,7 +43335,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.574610231246201</v>
+        <v>1.578994631590521</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.836210108713282</v>
@@ -43574,7 +43424,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.565610629386267</v>
+        <v>1.571135803372792</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.60225536965477</v>
@@ -43663,7 +43513,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.595613205836993</v>
+        <v>1.599526137349757</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.85439895849697</v>
@@ -43752,7 +43602,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.594128643228118</v>
+        <v>1.59506023374276</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.655649995615359</v>
@@ -43841,7 +43691,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.621823648287132</v>
+        <v>1.619222625645461</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.55105340342651</v>
@@ -43930,7 +43780,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.643809158208775</v>
+        <v>1.635698752383239</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.620031491598592</v>
@@ -44019,7 +43869,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.624225106480891</v>
+        <v>1.617676404423609</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.611268322315607</v>
@@ -44108,7 +43958,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.624541845944671</v>
+        <v>1.61873636485999</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.591906496999843</v>
@@ -44197,7 +44047,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.641527985443176</v>
+        <v>1.642231981316775</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.686025049965667</v>
@@ -44286,7 +44136,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.644414425459065</v>
+        <v>1.655507075313727</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.826012085872263</v>
@@ -44375,7 +44225,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.667873875129036</v>
+        <v>1.673074497970425</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.761029112472654</v>
@@ -44464,7 +44314,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.659145556396968</v>
+        <v>1.668495493663531</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.67811845940243</v>
@@ -44553,7 +44403,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.648936193453976</v>
+        <v>1.659585069800017</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.738288280772773</v>
